--- a/tabulka endpointů.xlsx
+++ b/tabulka endpointů.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozej\Documents\maturitni_prjekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honza\Documents\GitHub\maturitni_prjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C78ACC-0B36-45F6-A4B5-0B2B3B94EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6C59F8-3161-4370-9405-019378304280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15765" windowHeight="15585" xr2:uid="{9EEC3523-EF8D-4830-82DB-DED978722F55}"/>
+    <workbookView xWindow="6450" yWindow="405" windowWidth="21705" windowHeight="15345" xr2:uid="{9EEC3523-EF8D-4830-82DB-DED978722F55}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="123">
   <si>
     <t>HTTP metoda</t>
   </si>
@@ -332,9 +332,6 @@
     <t>/register</t>
   </si>
   <si>
-    <t>/activate-aaccount</t>
-  </si>
-  <si>
     <t>/reset-activation-code</t>
   </si>
   <si>
@@ -357,6 +354,57 @@
   </si>
   <si>
     <t>/token</t>
+  </si>
+  <si>
+    <t>registruje nového uživatele</t>
+  </si>
+  <si>
+    <t>200, 400, 403, 500</t>
+  </si>
+  <si>
+    <t>/activate-account</t>
+  </si>
+  <si>
+    <t>aktivace neaktivovaného účtu</t>
+  </si>
+  <si>
+    <t>vygeneruje nový aktivační kód</t>
+  </si>
+  <si>
+    <t>200, 403, 500</t>
+  </si>
+  <si>
+    <t>přihlásí učivatele</t>
+  </si>
+  <si>
+    <t>200, 202, 400, 403, 404, 500</t>
+  </si>
+  <si>
+    <t>provede druhou fázi ověření</t>
+  </si>
+  <si>
+    <t>200, 403, 404, 500</t>
+  </si>
+  <si>
+    <t>odhlásí přihlášeného uživatele</t>
+  </si>
+  <si>
+    <t>200, 500</t>
+  </si>
+  <si>
+    <t>přihlášenému uživateli změní heslo</t>
+  </si>
+  <si>
+    <t>200, 400, 403, 404, 500</t>
+  </si>
+  <si>
+    <t>vygeneruje kód pro obnovu hesla</t>
+  </si>
+  <si>
+    <t>obnový uživateli heslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrátí uživateli přístupový token </t>
   </si>
 </sst>
 </file>
@@ -403,7 +451,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -411,11 +459,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,7 +551,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,1201 +947,1258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D973C10-74B5-4A2F-A999-B18B606C50CB}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="13">
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="8">
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="8">
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="B28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="34" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="39" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="B40" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
+    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="45" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="7">
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
+    <row r="47" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2" t="s">
+    <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2" t="s">
+    <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
+    <row r="50" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B51" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
+    <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
+    <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="8">
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="B56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2" t="s">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="2" t="s">
+    <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="2" t="s">
+    <row r="62" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="B63" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C64" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
+    <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="2" t="s">
+    <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="8">
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2" t="s">
+    <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2" t="s">
+    <row r="71" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="2" t="s">
+    <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="7">
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="2" t="s">
+    <row r="73" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+      <c r="B73" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="2" t="s">
+    <row r="74" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="11">
         <v>405</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="2" t="s">
+      <c r="D75" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="22"/>
+      <c r="D77" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="22"/>
+      <c r="D78" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="22"/>
+      <c r="D79" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="22"/>
+      <c r="D80" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="22"/>
+      <c r="D81" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="22"/>
+      <c r="D82" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="22"/>
+      <c r="D83" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
+      <c r="C84" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="D67:D68"/>
+  <mergeCells count="29">
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="A51:A55"/>
     <mergeCell ref="E67:E68"/>
     <mergeCell ref="A28:A34"/>
     <mergeCell ref="A2:A6"/>
@@ -1973,11 +2215,13 @@
     <mergeCell ref="E56:E59"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:A45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="D67:D68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/tabulka endpointů.xlsx
+++ b/tabulka endpointů.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honza\Documents\GitHub\maturitni_prjekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozej\Documents\maturitni_prjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6C59F8-3161-4370-9405-019378304280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88601081-A6BB-4B54-BAF1-896F56FEEB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="405" windowWidth="21705" windowHeight="15345" xr2:uid="{9EEC3523-EF8D-4830-82DB-DED978722F55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EEC3523-EF8D-4830-82DB-DED978722F55}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,16 +560,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,13 +575,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,13 +590,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +942,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -956,12 +950,12 @@
     <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -979,7 +973,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -988,75 +982,75 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1065,88 +1059,88 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1155,75 +1149,75 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1232,67 +1226,67 @@
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="12">
         <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1301,170 +1295,170 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="12">
         <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1473,165 +1467,165 @@
       <c r="C35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="20" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="21" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="20" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="20" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1640,144 +1634,144 @@
       <c r="C46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="20" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="20" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="21" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="20" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="12">
         <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="20" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="20" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="8"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1786,202 +1780,202 @@
       <c r="C56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="20" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="20" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="21" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="20" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="20" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="12">
         <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="20" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="8"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="20" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -1990,209 +1984,229 @@
       <c r="C70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="20" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="20" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="21" t="s">
+      <c r="A74" s="15"/>
+      <c r="B74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="8">
         <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="19"/>
+      <c r="D76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="20" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="19"/>
+      <c r="D77" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="20" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="6" t="s">
+      <c r="C78" s="19"/>
+      <c r="D78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="20" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="6" t="s">
+      <c r="C79" s="19"/>
+      <c r="D79" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="20" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="6" t="s">
+      <c r="C80" s="19"/>
+      <c r="D80" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="20" t="s">
+      <c r="A81" s="14"/>
+      <c r="B81" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="6" t="s">
+      <c r="C81" s="19"/>
+      <c r="D81" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="20" t="s">
+      <c r="A82" s="14"/>
+      <c r="B82" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="6" t="s">
+      <c r="C82" s="19"/>
+      <c r="D82" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="20" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="6" t="s">
+      <c r="C83" s="19"/>
+      <c r="D83" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="21" t="s">
+      <c r="A84" s="15"/>
+      <c r="B84" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="10" t="s">
+      <c r="C84" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="8" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="A46:A50"/>
@@ -2200,28 +2214,8 @@
     <mergeCell ref="E53:E55"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E56:E59"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="D67:D68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
